--- a/docs/reference/vg.xlsx
+++ b/docs/reference/vg.xlsx
@@ -60,7 +60,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/d1252b230c4265.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/d338540f5bf6d.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="914400" y="1828800"/>
